--- a/Project/2017-08-18.短信回应率/短信回应率数据-0818(1)report.xlsx
+++ b/Project/2017-08-18.短信回应率/短信回应率数据-0818(1)report.xlsx
@@ -792,7 +792,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
+      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1574,9 +1574,17 @@
       <c r="D30" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
+      <c r="E30" s="21">
+        <f>21/4095</f>
+        <v>5.1282051282051282E-3</v>
+      </c>
+      <c r="F30" s="21">
+        <f>4/4095</f>
+        <v>9.768009768009768E-4</v>
+      </c>
+      <c r="G30" s="21">
+        <v>993</v>
+      </c>
       <c r="H30" s="21" t="s">
         <v>75</v>
       </c>
@@ -1600,9 +1608,17 @@
       <c r="D31" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
+      <c r="E31" s="21">
+        <f>5448/43293</f>
+        <v>0.12584020511399072</v>
+      </c>
+      <c r="F31" s="21">
+        <f>468/43293</f>
+        <v>1.0810061672787748E-2</v>
+      </c>
+      <c r="G31" s="21">
+        <v>189392.21</v>
+      </c>
       <c r="H31" s="21" t="s">
         <v>78</v>
       </c>
@@ -1626,9 +1642,17 @@
       <c r="D32" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
+      <c r="E32" s="21">
+        <f>26/2973</f>
+        <v>8.745375042045072E-3</v>
+      </c>
+      <c r="F32" s="21">
+        <f>2/2973</f>
+        <v>6.7272115708039018E-4</v>
+      </c>
+      <c r="G32" s="21">
+        <v>1085</v>
+      </c>
       <c r="H32" s="21" t="s">
         <v>78</v>
       </c>
@@ -1652,9 +1676,17 @@
       <c r="D33" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
+      <c r="E33" s="21">
+        <f>11/764</f>
+        <v>1.4397905759162303E-2</v>
+      </c>
+      <c r="F33" s="21">
+        <f>3/764</f>
+        <v>3.9267015706806281E-3</v>
+      </c>
+      <c r="G33" s="21">
+        <v>1432</v>
+      </c>
       <c r="H33" s="21" t="s">
         <v>78</v>
       </c>
@@ -1678,9 +1710,17 @@
       <c r="D34" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
+      <c r="E34" s="21">
+        <f>16/561</f>
+        <v>2.8520499108734401E-2</v>
+      </c>
+      <c r="F34" s="21">
+        <f>1/561</f>
+        <v>1.7825311942959001E-3</v>
+      </c>
+      <c r="G34" s="21">
+        <v>199</v>
+      </c>
       <c r="H34" s="21" t="s">
         <v>78</v>
       </c>
